--- a/results/ALLFEATURES_BY_YEAR_NOPRECIP.xlsx
+++ b/results/ALLFEATURES_BY_YEAR_NOPRECIP.xlsx
@@ -384,13 +384,13 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>811.3710561110729</v>
+        <v>771.3313402084179</v>
       </c>
       <c r="C2">
-        <v>28.48457575796194</v>
+        <v>27.77285257600339</v>
       </c>
       <c r="D2">
-        <v>3.605278152363503</v>
+        <v>3.427364099497759</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -398,13 +398,13 @@
         <v>2016</v>
       </c>
       <c r="B3">
-        <v>499.6291617243049</v>
+        <v>474.2352720456978</v>
       </c>
       <c r="C3">
-        <v>22.35238604096451</v>
+        <v>21.77694358824713</v>
       </c>
       <c r="D3">
-        <v>2.511937344811564</v>
+        <v>2.384266935034888</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -412,13 +412,13 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>2223.17858451515</v>
+        <v>2233.811227744461</v>
       </c>
       <c r="C4">
-        <v>47.15059474190278</v>
+        <v>47.26321220298575</v>
       </c>
       <c r="D4">
-        <v>0.9086174305092372</v>
+        <v>0.912963012568114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -426,13 +426,13 @@
         <v>2018</v>
       </c>
       <c r="B5">
-        <v>1743.731093607855</v>
+        <v>1720.495582939007</v>
       </c>
       <c r="C5">
-        <v>41.75800634139344</v>
+        <v>41.47885705921761</v>
       </c>
       <c r="D5">
-        <v>1.107709809953274</v>
+        <v>1.092949390068861</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -440,13 +440,13 @@
         <v>2019</v>
       </c>
       <c r="B6">
-        <v>3002.912721008232</v>
+        <v>3008.867998551901</v>
       </c>
       <c r="C6">
-        <v>54.79883868302532</v>
+        <v>54.85314939501561</v>
       </c>
       <c r="D6">
-        <v>0.9233589862688761</v>
+        <v>0.9251901613800312</v>
       </c>
     </row>
   </sheetData>
@@ -481,13 +481,13 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>1276.512268486683</v>
+        <v>1343.585358437376</v>
       </c>
       <c r="C2">
-        <v>35.72831186169706</v>
+        <v>36.65494998547094</v>
       </c>
       <c r="D2">
-        <v>5.672104961270732</v>
+        <v>5.970140174616605</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -495,13 +495,13 @@
         <v>2016</v>
       </c>
       <c r="B3">
-        <v>738.3847315491253</v>
+        <v>788.9749414992993</v>
       </c>
       <c r="C3">
-        <v>27.17323557379808</v>
+        <v>28.08869775371047</v>
       </c>
       <c r="D3">
-        <v>3.712305694118743</v>
+        <v>3.966653213020831</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -509,13 +509,13 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>1088.125367944614</v>
+        <v>1114.256255131131</v>
       </c>
       <c r="C4">
-        <v>32.98674533725044</v>
+        <v>33.38047715553405</v>
       </c>
       <c r="D4">
-        <v>0.4447189635507263</v>
+        <v>0.455398708190995</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -523,13 +523,13 @@
         <v>2018</v>
       </c>
       <c r="B5">
-        <v>1219.543270565788</v>
+        <v>1201.812512681159</v>
       </c>
       <c r="C5">
-        <v>34.92195971828883</v>
+        <v>34.66716764723013</v>
       </c>
       <c r="D5">
-        <v>0.7747181027053578</v>
+        <v>0.7634545916521315</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -537,13 +537,13 @@
         <v>2019</v>
       </c>
       <c r="B6">
-        <v>1556.482434845586</v>
+        <v>1598.365791626986</v>
       </c>
       <c r="C6">
-        <v>39.45228047712306</v>
+        <v>39.97956717658392</v>
       </c>
       <c r="D6">
-        <v>0.4785993389450861</v>
+        <v>0.4914779596218232</v>
       </c>
     </row>
   </sheetData>
@@ -578,13 +578,13 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>1637.544249848072</v>
+        <v>1817.848688541489</v>
       </c>
       <c r="C2">
-        <v>40.46658188985167</v>
+        <v>42.63623680088909</v>
       </c>
       <c r="D2">
-        <v>7.276328706871686</v>
+        <v>8.077500561227922</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -592,13 +592,13 @@
         <v>2016</v>
       </c>
       <c r="B3">
-        <v>1024.932922257473</v>
+        <v>1060.119651541532</v>
       </c>
       <c r="C3">
-        <v>32.01457359168592</v>
+        <v>32.55947867428979</v>
       </c>
       <c r="D3">
-        <v>5.152956393618353</v>
+        <v>5.329861318513725</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -606,13 +606,13 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>1428.825791002058</v>
+        <v>1408.053896018105</v>
       </c>
       <c r="C4">
-        <v>37.79981204982451</v>
+        <v>37.52404423856928</v>
       </c>
       <c r="D4">
-        <v>0.5839638920184916</v>
+        <v>0.5754743779602951</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -620,13 +620,13 @@
         <v>2018</v>
       </c>
       <c r="B5">
-        <v>1721.774050489874</v>
+        <v>1663.638092735236</v>
       </c>
       <c r="C5">
-        <v>41.49426527232256</v>
+        <v>40.78771987663978</v>
       </c>
       <c r="D5">
-        <v>1.09376153997718</v>
+        <v>1.056830518358129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -634,13 +634,13 @@
         <v>2019</v>
       </c>
       <c r="B6">
-        <v>1784.148352615144</v>
+        <v>1774.978015910228</v>
       </c>
       <c r="C6">
-        <v>42.23918030235843</v>
+        <v>42.13048796192881</v>
       </c>
       <c r="D6">
-        <v>0.5486038281095625</v>
+        <v>0.5457840615727747</v>
       </c>
     </row>
   </sheetData>
